--- a/DATA_goal/Junction_Flooding_89.xlsx
+++ b/DATA_goal/Junction_Flooding_89.xlsx
@@ -444,7 +444,7 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
@@ -462,18 +462,18 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>41521.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.84</v>
+        <v>1.48</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.7</v>
+        <v>0.37</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>32.24</v>
+        <v>3.22</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>24.17</v>
+        <v>2.42</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.51</v>
+        <v>1.15</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>34.96</v>
+        <v>3.5</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>18.03</v>
+        <v>1.8</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.73</v>
+        <v>1.07</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.53</v>
+        <v>1.25</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.25</v>
+        <v>1.33</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.65</v>
+        <v>1.17</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>16.06</v>
+        <v>1.61</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.28</v>
+        <v>1.03</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.1</v>
+        <v>0.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>170.03</v>
+        <v>17</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>32.3</v>
+        <v>3.23</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.81</v>
+        <v>2.08</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.71</v>
+        <v>1.07</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.84</v>
+        <v>0.28</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>18.29</v>
+        <v>1.83</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.3</v>
+        <v>1.03</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.68</v>
+        <v>1.27</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>31.42</v>
+        <v>3.14</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.68</v>
+        <v>0.57</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.45</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41521.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>15.13</v>
+        <v>1.51</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.73</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>33.19</v>
+        <v>3.32</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>26.07</v>
+        <v>2.61</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>11.79</v>
+        <v>1.18</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>45.11</v>
+        <v>4.51</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>18.38</v>
+        <v>1.84</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.91</v>
+        <v>0.79</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.53</v>
+        <v>1.15</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>13.14</v>
+        <v>1.31</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>13.94</v>
+        <v>1.39</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.82</v>
+        <v>0.38</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>11.88</v>
+        <v>1.19</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>16.7</v>
+        <v>1.67</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.33</v>
+        <v>1.03</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.45</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>173.51</v>
+        <v>17.35</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>33.23</v>
+        <v>3.32</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.97</v>
+        <v>1.1</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>21.92</v>
+        <v>2.19</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.44</v>
+        <v>1.14</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.18</v>
+        <v>0.22</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>22.25</v>
+        <v>2.22</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.69</v>
+        <v>0.97</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.74</v>
+        <v>0.87</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.31</v>
+        <v>1.03</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>41.37</v>
+        <v>4.14</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.98</v>
+        <v>0.6</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>13.71</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41521.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.14</v>
+        <v>1.01</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.25</v>
+        <v>0.72</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>22.31</v>
+        <v>2.23</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>17.49</v>
+        <v>1.75</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.89</v>
+        <v>0.79</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>32.84</v>
+        <v>3.28</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.32</v>
+        <v>0.53</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.71</v>
+        <v>0.77</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.85</v>
+        <v>0.88</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.41</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.22</v>
+        <v>1.12</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.97</v>
+        <v>0.7</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>114</v>
+        <v>11.4</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>22.36</v>
+        <v>2.24</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.36</v>
+        <v>0.74</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>14.75</v>
+        <v>1.47</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.7</v>
+        <v>0.77</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.46</v>
+        <v>0.15</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>15.71</v>
+        <v>1.57</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.5</v>
+        <v>0.65</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.88</v>
+        <v>0.59</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.09</v>
+        <v>0.91</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>30.12</v>
+        <v>3.01</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41521.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.18</v>
+        <v>0.92</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.64</v>
+        <v>0.66</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>20.19</v>
+        <v>2.02</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>15.96</v>
+        <v>1.6</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.15</v>
+        <v>0.72</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>28.99</v>
+        <v>2.9</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.17</v>
+        <v>1.12</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.85</v>
+        <v>0.49</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.05</v>
+        <v>0.71</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.32</v>
+        <v>0.23</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.22</v>
+        <v>0.72</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.18</v>
+        <v>1.02</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.27</v>
+        <v>0.63</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>102.54</v>
+        <v>10.25</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>20.21</v>
+        <v>2.02</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.66</v>
+        <v>0.67</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.38</v>
+        <v>1.34</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.01</v>
+        <v>0.7</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.9</v>
+        <v>1.39</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.31</v>
+        <v>0.53</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.24</v>
+        <v>0.62</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>26.46</v>
+        <v>2.65</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.65</v>
+        <v>0.37</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.33</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41521.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>8.99</v>
+        <v>0.9</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>6.56</v>
+        <v>0.66</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>19.76</v>
+        <v>1.98</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>15.74</v>
+        <v>1.57</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>7.02</v>
+        <v>0.7</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>27.98</v>
+        <v>2.8</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>10.94</v>
+        <v>1.09</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>4.78</v>
+        <v>0.48</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>6.98</v>
+        <v>0.7</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>7.87</v>
+        <v>0.79</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.27</v>
+        <v>0.23</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>7.07</v>
+        <v>0.71</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>9.99</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>6.09</v>
+        <v>0.61</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>100.25</v>
+        <v>10.03</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>19.78</v>
+        <v>1.98</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>6.52</v>
+        <v>0.65</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>13.15</v>
+        <v>1.32</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>6.89</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.18</v>
+        <v>0.12</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>13.48</v>
+        <v>1.35</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>5.76</v>
+        <v>0.58</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>5.17</v>
+        <v>0.52</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>6.08</v>
+        <v>0.61</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>8.15</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>25.5</v>
+        <v>2.55</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>3.6</v>
+        <v>0.36</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>8.16</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41521.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>6.49</v>
+        <v>0.65</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>4.72</v>
+        <v>0.47</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="4" t="n">
         <v>0.57</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>14.31</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>21.34</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>5.7</v>
-      </c>
       <c r="M7" s="4" t="n">
-        <v>6.08</v>
+        <v>0.61</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.64</v>
+        <v>0.16</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>5.11</v>
+        <v>0.51</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>7.23</v>
+        <v>0.72</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>4.44</v>
+        <v>0.44</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>70.5</v>
+        <v>7.05</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>14.36</v>
+        <v>1.44</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>4.72</v>
+        <v>0.47</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>4.98</v>
+        <v>0.5</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>10.18</v>
+        <v>1.02</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>4.17</v>
+        <v>0.42</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>3.76</v>
+        <v>0.38</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>4.41</v>
+        <v>0.44</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>5.88</v>
+        <v>0.59</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>19.55</v>
+        <v>1.96</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>2.59</v>
+        <v>0.26</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41521.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>14.47</v>
+        <v>1.45</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>10.75</v>
+        <v>1.07</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>31.64</v>
+        <v>3.16</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>25.73</v>
+        <v>2.57</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>11.35</v>
+        <v>1.13</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>41.86</v>
+        <v>4.19</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>17.57</v>
+        <v>1.76</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>7.79</v>
+        <v>0.78</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>12.66</v>
+        <v>1.27</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>13.44</v>
+        <v>1.34</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.65</v>
+        <v>0.36</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>11.35</v>
+        <v>1.14</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>16.14</v>
+        <v>1.61</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>9.58</v>
+        <v>0.96</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>165.48</v>
+        <v>16.55</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>31.67</v>
+        <v>3.17</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>21.28</v>
+        <v>2.13</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>11.18</v>
+        <v>1.12</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>20.65</v>
+        <v>2.06</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>9.26</v>
+        <v>0.93</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>9.65</v>
+        <v>0.97</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>13.22</v>
+        <v>1.32</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>37.92</v>
+        <v>3.79</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>13.1</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41521.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>18.22</v>
+        <v>1.82</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>13.58</v>
+        <v>1.36</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>39.79</v>
+        <v>3.98</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>32.52</v>
+        <v>3.25</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>14.3</v>
+        <v>1.43</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>54.98</v>
+        <v>5.5</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>22.11</v>
+        <v>2.21</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>14.6</v>
+        <v>1.46</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>15.93</v>
+        <v>1.59</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>16.9</v>
+        <v>1.69</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.59</v>
+        <v>0.46</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>14.29</v>
+        <v>1.43</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>20.36</v>
+        <v>2.04</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>11.99</v>
+        <v>1.2</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>210.14</v>
+        <v>21.01</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>39.94</v>
+        <v>3.99</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>13.19</v>
+        <v>1.32</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>26.91</v>
+        <v>2.69</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>14.12</v>
+        <v>1.41</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>26.92</v>
+        <v>2.69</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>11.65</v>
+        <v>1.16</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>10.29</v>
+        <v>1.03</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>12.11</v>
+        <v>1.21</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>16.67</v>
+        <v>1.67</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>50.01</v>
+        <v>5</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>7.44</v>
+        <v>0.74</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>16.49</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41521.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>2.2</v>
+        <v>0.22</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>6.75</v>
+        <v>0.68</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>5.24</v>
+        <v>0.52</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>15.87</v>
+        <v>1.59</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>3.72</v>
+        <v>0.37</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>1.7</v>
+        <v>0.17</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>2.29</v>
+        <v>0.23</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>2.68</v>
+        <v>0.27</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>2.88</v>
+        <v>0.29</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>2.41</v>
+        <v>0.24</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>3.51</v>
+        <v>0.35</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB10" s="4" t="n">
         <v>0.18</v>
       </c>
-      <c r="T10" s="4" t="n">
-        <v>29.39</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AC10" s="4" t="n">
-        <v>2.1</v>
+        <v>0.21</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>2.75</v>
+        <v>0.27</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>15.01</v>
+        <v>1.5</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_89.xlsx
+++ b/DATA_goal/Junction_Flooding_89.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41521.34027777778</v>
+        <v>44781.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.48</v>
+        <v>0.54</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.98</v>
+        <v>0.52</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.22</v>
+        <v>1.32</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.42</v>
+        <v>1.12</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.15</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.5</v>
+        <v>1.34</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.73</v>
+        <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.07</v>
+        <v>0.62</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.25</v>
+        <v>0.64</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.33</v>
+        <v>0.62</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.17</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.17</v>
+        <v>0.48</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.61</v>
+        <v>0.68</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.03</v>
+        <v>0.44</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>17</v>
+        <v>7.22</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.23</v>
+        <v>1.43</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.08</v>
+        <v>0.46</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.08</v>
+        <v>0.85</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.07</v>
+        <v>0.63</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.28</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.83</v>
+        <v>0.7</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.95</v>
+        <v>0.41</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.86</v>
+        <v>0.51</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.03</v>
+        <v>0.63</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.27</v>
+        <v>0.67</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.14</v>
+        <v>1.11</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.34</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41521.34722222222</v>
+        <v>44781.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>1.51</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.08</v>
+        <v>1.19</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.03</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.32</v>
+        <v>3.38</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.61</v>
+        <v>2.79</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.51</v>
+        <v>4.39</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.15</v>
+        <v>1.34</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>1.03</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>17.35</v>
+        <v>18.12</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.32</v>
+        <v>3.46</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.19</v>
+        <v>2.28</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="Z3" s="4" t="n">
         <v>2.22</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.14</v>
+        <v>3.97</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.6</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41521.35416666666</v>
+        <v>44781.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J4" s="4" t="n">
         <v>1.01</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.53</v>
-      </c>
       <c r="K4" s="4" t="n">
-        <v>0.77</v>
+        <v>1.52</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.88</v>
+        <v>1.62</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.68</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.26</v>
+        <v>0.46</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.12</v>
+        <v>2.03</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.7</v>
+        <v>1.19</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>11.4</v>
+        <v>20.99</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.24</v>
+        <v>4</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.74</v>
+        <v>1.31</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.47</v>
+        <v>2.67</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.77</v>
+        <v>1.46</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.57</v>
+        <v>2.71</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.65</v>
+        <v>1.16</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.59</v>
+        <v>1.08</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.27</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.91</v>
+        <v>1.7</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.01</v>
+        <v>5.02</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.78</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.92</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41521.36111111111</v>
+        <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.92</v>
+        <v>2.46</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.66</v>
+        <v>1.87</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.02</v>
+        <v>5.4</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.6</v>
+        <v>4.46</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.72</v>
+        <v>1.95</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.9</v>
+        <v>7.57</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.12</v>
+        <v>3.03</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.49</v>
+        <v>1.37</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.71</v>
+        <v>2.06</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.85</v>
+        <v>2.3</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.63</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.72</v>
+        <v>1.93</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.02</v>
+        <v>2.79</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.63</v>
+        <v>1.62</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>10.25</v>
+        <v>29.01</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.02</v>
+        <v>5.47</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.67</v>
+        <v>1.79</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.34</v>
+        <v>3.67</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.7</v>
+        <v>1.98</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.39</v>
+        <v>3.7</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.59</v>
+        <v>1.59</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.53</v>
+        <v>1.44</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.62</v>
+        <v>1.69</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.83</v>
+        <v>2.32</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.65</v>
+        <v>6.87</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.37</v>
+        <v>1.05</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.83</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41521.36805555555</v>
+        <v>44781.86804398148</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.9</v>
+        <v>3.98</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.66</v>
+        <v>3.17</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.98</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.57</v>
+        <v>7.46</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2.8</v>
+        <v>20.6</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.09</v>
+        <v>5.29</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.48</v>
+        <v>2.55</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.7</v>
+        <v>3.75</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.79</v>
+        <v>3.96</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.84</v>
+        <v>3.92</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.23</v>
+        <v>1.1</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.71</v>
+        <v>3.19</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1</v>
+        <v>4.91</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.61</v>
+        <v>2.81</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.19</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>10.03</v>
+        <v>44.13</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>1.98</v>
+        <v>9.85</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.65</v>
+        <v>3.03</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.32</v>
+        <v>6.5</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>3.68</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.12</v>
+        <v>0.44</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.35</v>
+        <v>9.33</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.58</v>
+        <v>2.74</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.52</v>
+        <v>2.77</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.61</v>
+        <v>3.23</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>4.16</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>2.55</v>
+        <v>19.22</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.36</v>
+        <v>1.93</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41521.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41521.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41521.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>21.01</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41521.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41521.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>16.21</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>35.39</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>28.95</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>12.72</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>46.02</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>19.66</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>8.76</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>14.17</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>15.04</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>18.09</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>186.08</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>23.86</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>12.56</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>22.74</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>14.84</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>14.66</v>
+        <v>3.77</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_89.xlsx
+++ b/DATA_goal/Junction_Flooding_89.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44781.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.54</v>
+        <v>5.38</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.17</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.12</v>
+        <v>11.19</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.34</v>
+        <v>13.38</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.77</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.17</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.37</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.68</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.81</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.85</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.45</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.22</v>
+        <v>72.19</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.31</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.51</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.25</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.32</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.06</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.51</v>
+        <v>15.1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.19</v>
+        <v>11.86</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.38</v>
+        <v>33.8</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.79</v>
+        <v>27.89</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.23</v>
+        <v>12.29</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.39</v>
+        <v>43.85</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.92</v>
+        <v>19.2</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.83</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.34</v>
+        <v>13.35</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.42</v>
+        <v>14.19</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.46</v>
+        <v>14.55</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.07</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.75</v>
+        <v>17.5</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.32</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>18.12</v>
+        <v>181.22</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.46</v>
+        <v>34.61</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.29</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.28</v>
+        <v>22.84</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.92</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.22</v>
+        <v>22.25</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1</v>
+        <v>10.04</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.14</v>
+        <v>11.39</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.49</v>
+        <v>14.93</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.97</v>
+        <v>39.71</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.94</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.77</v>
+        <v>17.72</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.64</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.93</v>
+        <v>39.26</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.24</v>
+        <v>32.36</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.42</v>
+        <v>14.22</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.52</v>
+        <v>55.21</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.22</v>
+        <v>22.15</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.11</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.52</v>
+        <v>15.19</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.62</v>
+        <v>16.21</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.68</v>
+        <v>16.77</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.4</v>
+        <v>14.02</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.03</v>
+        <v>20.31</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.19</v>
+        <v>11.86</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>20.99</v>
+        <v>209.94</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4</v>
+        <v>39.95</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.31</v>
+        <v>13.06</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.67</v>
+        <v>26.66</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.61</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.87</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.71</v>
+        <v>27.1</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.16</v>
+        <v>11.61</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.27</v>
+        <v>12.66</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.7</v>
+        <v>17.04</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.02</v>
+        <v>50.16</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.78</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.62</v>
+        <v>16.24</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.46</v>
+        <v>24.56</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.87</v>
+        <v>18.69</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.4</v>
+        <v>54.01</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.46</v>
+        <v>44.55</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.95</v>
+        <v>19.54</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>7.57</v>
+        <v>75.69</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.03</v>
+        <v>30.31</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.37</v>
+        <v>13.74</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.06</v>
+        <v>20.58</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.2</v>
+        <v>22.03</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.3</v>
+        <v>22.99</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.93</v>
+        <v>19.33</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.79</v>
+        <v>27.89</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.62</v>
+        <v>16.21</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>29.01</v>
+        <v>290.11</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.47</v>
+        <v>54.67</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.79</v>
+        <v>17.94</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.67</v>
+        <v>36.73</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.98</v>
+        <v>19.75</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.56</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.7</v>
+        <v>37.04</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.59</v>
+        <v>15.92</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.4</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.69</v>
+        <v>16.94</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.32</v>
+        <v>23.16</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.87</v>
+        <v>68.70999999999999</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.48</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.24</v>
+        <v>22.38</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_89.xlsx
+++ b/DATA_goal/Junction_Flooding_89.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,70 +655,70 @@
         <v>44781.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.38</v>
+        <v>5.378</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.21</v>
+        <v>5.209</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>13.17</v>
+        <v>13.173</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.19</v>
+        <v>11.188</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.04</v>
+        <v>5.041</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>13.38</v>
+        <v>13.381</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.97</v>
+        <v>7.973</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.77</v>
+        <v>3.774</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.17</v>
+        <v>6.167</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.37</v>
+        <v>6.371</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.16</v>
+        <v>6.162</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>1.68</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.81</v>
+        <v>4.805</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.85</v>
+        <v>6.849</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.45</v>
+        <v>4.447</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.3</v>
+        <v>0.297</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.425</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>72.19</v>
+        <v>72.19199999999999</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>14.31</v>
+        <v>14.308</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.64</v>
+        <v>4.642</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>8.51</v>
+        <v>8.505000000000001</v>
       </c>
       <c r="X2" s="4" t="n">
         <v>6.25</v>
@@ -727,31 +727,31 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>6.98</v>
+        <v>6.977</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.07</v>
+        <v>4.068</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.07</v>
+        <v>5.066</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.32</v>
+        <v>6.321</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.73</v>
+        <v>6.735</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>11.06</v>
+        <v>11.064</v>
       </c>
       <c r="AG2" s="4" t="n">
         <v>3.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.19</v>
+        <v>5.189</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>15.1</v>
+        <v>15.096</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.86</v>
+        <v>11.859</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.31</v>
+        <v>0.306</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>33.8</v>
+        <v>33.797</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>27.89</v>
+        <v>27.894</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.29</v>
+        <v>12.287</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>43.85</v>
+        <v>43.851</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>19.2</v>
+        <v>19.205</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.83</v>
+        <v>8.833</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>13.35</v>
+        <v>13.351</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>14.19</v>
+        <v>14.191</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>14.55</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.98</v>
+        <v>3.984</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.07</v>
+        <v>12.066</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>17.5</v>
+        <v>17.499</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.32</v>
+        <v>10.317</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.24</v>
+        <v>0.242</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.61</v>
+        <v>0.613</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>181.22</v>
+        <v>181.224</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>34.61</v>
+        <v>34.606</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.29</v>
+        <v>11.289</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>22.84</v>
+        <v>22.844</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>12.92</v>
+        <v>12.921</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.63</v>
+        <v>1.627</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>22.25</v>
+        <v>22.246</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.04</v>
+        <v>10.042</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>9.635</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.39</v>
+        <v>11.386</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>14.93</v>
+        <v>14.928</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.42</v>
+        <v>0.419</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>39.71</v>
+        <v>39.714</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.94</v>
+        <v>6.944</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>13.94</v>
+        <v>13.937</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17.72</v>
+        <v>17.718</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.64</v>
+        <v>13.637</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.437</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>39.26</v>
+        <v>39.259</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>32.36</v>
+        <v>32.363</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.22</v>
+        <v>14.218</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>55.21</v>
+        <v>55.208</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>22.15</v>
+        <v>22.152</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.11</v>
+        <v>10.108</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>15.19</v>
+        <v>15.187</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.21</v>
+        <v>16.207</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>16.77</v>
+        <v>16.769</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.59</v>
+        <v>4.589</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>14.02</v>
+        <v>14.016</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>20.31</v>
+        <v>20.313</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.86</v>
+        <v>11.856</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.23</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.641</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>209.94</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>39.95</v>
+        <v>39.953</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.06</v>
+        <v>13.056</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>26.66</v>
+        <v>26.656</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.61</v>
+        <v>14.614</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.87</v>
+        <v>1.873</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>27.1</v>
+        <v>27.095</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.61</v>
+        <v>11.612</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.76</v>
+        <v>10.761</v>
       </c>
       <c r="AC4" s="4" t="n">
         <v>12.66</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.04</v>
+        <v>17.042</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.28</v>
+        <v>0.281</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>50.16</v>
+        <v>50.162</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.78</v>
+        <v>7.778</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>16.24</v>
+        <v>16.245</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>22.38</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.13</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>19.22</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.77</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_89.xlsx
+++ b/DATA_goal/Junction_Flooding_89.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,7 +474,7 @@
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
-    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="33" max="33"/>
     <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -967,103 +967,207 @@
         <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>24.56</v>
+        <v>24.562</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>18.69</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.697</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>54.01</v>
+        <v>54.007</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>44.55</v>
+        <v>44.552</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>19.54</v>
+        <v>19.538</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>75.69</v>
+        <v>75.69199999999999</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>30.31</v>
+        <v>30.305</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>13.74</v>
+        <v>13.738</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>20.58</v>
+        <v>20.584</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>22.03</v>
+        <v>22.027</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>22.99</v>
+        <v>22.988</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>6.28</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>19.33</v>
+        <v>19.325</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>27.89</v>
+        <v>27.893</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>16.21</v>
+        <v>16.207</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.273</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>290.11</v>
+        <v>290.112</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>54.67</v>
+        <v>54.667</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.94</v>
+        <v>17.936</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>36.73</v>
+        <v>36.729</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>19.75</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.56</v>
+        <v>2.563</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>37.04</v>
+        <v>37.038</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.92</v>
+        <v>15.918</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>14.4</v>
+        <v>14.405</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>16.94</v>
+        <v>16.936</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>23.16</v>
+        <v>23.161</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.21</v>
+        <v>0.209</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>68.70999999999999</v>
+        <v>68.70699999999999</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>10.48</v>
+        <v>10.478</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>22.38</v>
+        <v>22.384</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.86804398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>44.13</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>19.22</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3.77</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_89.xlsx
+++ b/DATA_goal/Junction_Flooding_89.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,7 +474,7 @@
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
-    <col width="8" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -967,207 +967,103 @@
         <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>24.562</v>
+        <v>24.56</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>18.69</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.697</v>
+        <v>0.7</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>54.007</v>
+        <v>54.01</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>44.552</v>
+        <v>44.55</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>19.538</v>
+        <v>19.54</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>75.69199999999999</v>
+        <v>75.69</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>30.305</v>
+        <v>30.31</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>13.738</v>
+        <v>13.74</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>20.584</v>
+        <v>20.58</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>22.027</v>
+        <v>22.03</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>22.988</v>
+        <v>22.99</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>6.28</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>19.325</v>
+        <v>19.33</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>27.893</v>
+        <v>27.89</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>16.207</v>
+        <v>16.21</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.273</v>
+        <v>0.27</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>290.112</v>
+        <v>290.11</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>54.667</v>
+        <v>54.67</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.936</v>
+        <v>17.94</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>36.729</v>
+        <v>36.73</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>19.75</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.563</v>
+        <v>2.56</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>37.038</v>
+        <v>37.04</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.918</v>
+        <v>15.92</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>14.405</v>
+        <v>14.4</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>16.936</v>
+        <v>16.94</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>23.161</v>
+        <v>23.16</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.209</v>
+        <v>0.21</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>68.70699999999999</v>
+        <v>68.70999999999999</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>10.478</v>
+        <v>10.48</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>22.384</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.13</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>19.22</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.77</v>
+        <v>22.38</v>
       </c>
     </row>
   </sheetData>
